--- a/P020180327424072655116.xlsx
+++ b/P020180327424072655116.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BurningJump\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\demo\flags\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>招聘职位表</t>
   </si>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>备注：本次招聘的年龄计算截止到2018年3月1日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对对对</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +268,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +413,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L12"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -726,7 +741,7 @@
     <col min="12" max="12" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.2">
+    <row r="1" spans="1:13" ht="28.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -742,7 +757,7 @@
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="26.1" customHeight="1">
+    <row r="2" spans="1:13" ht="26.1" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -768,7 +783,7 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="25.5" customHeight="1">
+    <row r="3" spans="1:13" ht="25.5" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15"/>
@@ -796,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -831,8 +846,11 @@
       <c r="L4" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="42.75" customHeight="1">
+      <c r="M4" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -866,7 +884,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="49.5" customHeight="1">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="49.5" customHeight="1">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -900,7 +918,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="40.5" customHeight="1">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -934,7 +952,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="45.75" customHeight="1">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="45.75" customHeight="1">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -970,7 +988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="43.5" customHeight="1">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="43.5" customHeight="1">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1004,7 +1022,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="38.25" customHeight="1">
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="38.25" customHeight="1">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1">
+    <row r="11" spans="1:13" s="10" customFormat="1" ht="45" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
@@ -1059,7 +1077,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
+    <row r="12" spans="1:13" ht="30" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>41</v>
       </c>
@@ -1075,7 +1093,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>18</v>
       </c>

--- a/P020180327424072655116.xlsx
+++ b/P020180327424072655116.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>招聘职位表</t>
   </si>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>对对对</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶顶顶顶</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -393,6 +397,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -413,9 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,7 +728,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -742,53 +746,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="26.1" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
@@ -846,7 +850,7 @@
       <c r="L4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -917,6 +921,9 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
+      <c r="M6" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="7">
@@ -1059,12 +1066,12 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="10" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="8">
         <f>SUM(E4:E10)</f>
         <v>80</v>
@@ -1078,27 +1085,27 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
